--- a/app/assets/Sablona_za_nenaplacena_potrazivanja_primjer-1.xlsx
+++ b/app/assets/Sablona_za_nenaplacena_potrazivanja_primjer-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-1880" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zaglavlje" sheetId="1" r:id="rId1"/>
@@ -140,8 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _H_R_K"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -189,14 +190,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +607,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +641,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
@@ -656,16 +659,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,13 +683,13 @@
       <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -702,13 +706,13 @@
       <c r="C2" s="2">
         <v>42439</v>
       </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="8">
+        <v>10000.5</v>
+      </c>
+      <c r="E2" s="8">
         <v>500</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>1500</v>
       </c>
       <c r="G2" s="3">
@@ -725,14 +729,14 @@
       <c r="C3" s="2">
         <v>42470</v>
       </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
+      <c r="D3" s="8">
+        <v>20000.66</v>
+      </c>
+      <c r="E3" s="8">
+        <v>200.66</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2000.66</v>
       </c>
       <c r="G3" s="3">
         <v>29524210204</v>
@@ -748,13 +752,13 @@
       <c r="C4" s="2">
         <v>42379</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>50000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>1500</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>3200</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -763,5 +767,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/app/assets/Sablona_za_nenaplacena_potrazivanja_primjer-1.xlsx
+++ b/app/assets/Sablona_za_nenaplacena_potrazivanja_primjer-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jesenovic/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jesenovic/RubymineProjects/untitled1/public/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Zaglavlje" sheetId="1" r:id="rId1"/>
@@ -26,26 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>sastavio_ime</t>
-  </si>
-  <si>
-    <t>sastavio_prezime</t>
-  </si>
-  <si>
-    <t>sastavio_tel</t>
-  </si>
-  <si>
-    <t>sastavio_fax</t>
-  </si>
-  <si>
-    <t>sastavio_email</t>
-  </si>
-  <si>
     <t>na_dan</t>
   </si>
   <si>
@@ -79,27 +64,6 @@
     <t>hrvoje.jesenovic@gmail.com</t>
   </si>
   <si>
-    <t>Hrvoje</t>
-  </si>
-  <si>
-    <t>Jesenović</t>
-  </si>
-  <si>
-    <t>012222</t>
-  </si>
-  <si>
-    <t>01222</t>
-  </si>
-  <si>
-    <t>VIPNET d.o.o.</t>
-  </si>
-  <si>
-    <t>81793146560</t>
-  </si>
-  <si>
-    <t>Hrvatski Telekom d.d</t>
-  </si>
-  <si>
     <t>placeni_iznos_racuna</t>
   </si>
   <si>
@@ -134,6 +98,24 @@
   </si>
   <si>
     <t>broj_izdanog_racuna</t>
+  </si>
+  <si>
+    <t>Kompanija1 d.o.o.</t>
+  </si>
+  <si>
+    <t>Kompanija2 d.d</t>
+  </si>
+  <si>
+    <t>21111111114</t>
+  </si>
+  <si>
+    <t>81111111110</t>
+  </si>
+  <si>
+    <t>opz_ukupan_iznos_racuna_s_pdv</t>
+  </si>
+  <si>
+    <t>opz_ukupan_iznos_pdv</t>
   </si>
 </sst>
 </file>
@@ -478,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,34 +471,31 @@
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -528,22 +507,13 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42651</v>
       </c>
@@ -551,54 +521,41 @@
         <v>42653</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>94398799148</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>47</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
         <v>42653</v>
       </c>
-      <c r="O2" s="2">
+      <c r="J2" s="2">
         <v>42653</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="K2:L2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -607,7 +564,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,24 +576,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>29524210204</v>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -644,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -659,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,25 +632,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -715,8 +672,8 @@
       <c r="F2" s="8">
         <v>1500</v>
       </c>
-      <c r="G2" s="3">
-        <v>29524210204</v>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -738,8 +695,8 @@
       <c r="F3" s="8">
         <v>2000.66</v>
       </c>
-      <c r="G3" s="3">
-        <v>29524210204</v>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,13 +719,10 @@
         <v>3200</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/app/assets/Sablona_za_nenaplacena_potrazivanja_primjer-1.xlsx
+++ b/app/assets/Sablona_za_nenaplacena_potrazivanja_primjer-1.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Zaglavlje" sheetId="1" r:id="rId1"/>
-    <sheet name="Kupci" sheetId="2" r:id="rId2"/>
-    <sheet name="Racuni" sheetId="3" r:id="rId3"/>
+    <sheet name="Racuni" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>email</t>
   </si>
@@ -34,9 +33,6 @@
     <t>na_dan</t>
   </si>
   <si>
-    <t>nisu_naplaceni_do</t>
-  </si>
-  <si>
     <t>datum_izdanog_racuna</t>
   </si>
   <si>
@@ -67,12 +63,6 @@
     <t>placeni_iznos_racuna</t>
   </si>
   <si>
-    <t>datum_od</t>
-  </si>
-  <si>
-    <t>datum_do</t>
-  </si>
-  <si>
     <t>naziv</t>
   </si>
   <si>
@@ -88,22 +78,7 @@
     <t>broj</t>
   </si>
   <si>
-    <t>oznaka_poreznog_broja</t>
-  </si>
-  <si>
-    <t>porezni_broj</t>
-  </si>
-  <si>
-    <t>naziv_kupca</t>
-  </si>
-  <si>
     <t>broj_izdanog_racuna</t>
-  </si>
-  <si>
-    <t>Kompanija1 d.o.o.</t>
-  </si>
-  <si>
-    <t>Kompanija2 d.d</t>
   </si>
   <si>
     <t>21111111114</t>
@@ -460,100 +435,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>42651</v>
-      </c>
-      <c r="B2" s="2">
-        <v>42653</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>94398799148</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>94398799148</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>47</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2">
-        <v>42653</v>
-      </c>
-      <c r="J2" s="2">
-        <v>42653</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="G2" s="2">
+        <v>42460</v>
+      </c>
+      <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="8">
+      <c r="I2" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -561,63 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,25 +535,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -673,7 +576,7 @@
         <v>1500</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -681,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>42470</v>
+        <v>42439</v>
       </c>
       <c r="C3" s="2">
-        <v>42470</v>
+        <v>42439</v>
       </c>
       <c r="D3" s="8">
         <v>20000.66</v>
@@ -696,7 +599,7 @@
         <v>2000.66</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -719,7 +622,7 @@
         <v>3200</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
